--- a/Т4.xlsx
+++ b/Т4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
   <si>
     <t xml:space="preserve">Precondition: </t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>2. Добавление товара в карзину в количестве превышающем доступный для заказа остаток</t>
+  </si>
+  <si>
+    <t>N4</t>
   </si>
 </sst>
 </file>
@@ -327,59 +330,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -701,36 +704,36 @@
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
@@ -741,48 +744,48 @@
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="8"/>
       <c r="C12" s="3">
         <v>1</v>
@@ -790,12 +793,12 @@
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="8"/>
       <c r="C13" s="3">
         <v>2</v>
@@ -803,12 +806,12 @@
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="8"/>
       <c r="C14" s="3">
         <v>3</v>
@@ -816,32 +819,32 @@
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22">
+      <c r="A15" s="26"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16">
         <v>4</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
@@ -852,14 +855,14 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
@@ -881,14 +884,14 @@
     </row>
     <row r="22" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
@@ -900,7 +903,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="8"/>
@@ -922,7 +925,7 @@
       <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -935,7 +938,7 @@
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -948,7 +951,7 @@
       <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -961,20 +964,20 @@
       <c r="D29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16">
         <v>5</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -994,10 +997,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,38 +1013,43 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1052,48 +1060,48 @@
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="8"/>
       <c r="C12" s="3">
         <v>1</v>
@@ -1101,12 +1109,12 @@
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="8"/>
       <c r="C13" s="3">
         <v>2</v>
@@ -1114,12 +1122,12 @@
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="8"/>
       <c r="C14" s="3">
         <v>3</v>
@@ -1127,12 +1135,12 @@
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="8"/>
       <c r="C15" s="3">
         <v>4</v>
@@ -1140,20 +1148,20 @@
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22">
+      <c r="A16" s="26"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16">
         <v>5</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1162,33 +1170,33 @@
       <c r="A18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
@@ -1199,48 +1207,48 @@
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="8"/>
       <c r="C27" s="3">
         <v>1</v>
@@ -1248,12 +1256,12 @@
       <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="8"/>
       <c r="C28" s="3">
         <v>2</v>
@@ -1261,12 +1269,12 @@
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="8"/>
       <c r="C29" s="3">
         <v>3</v>
@@ -1274,12 +1282,12 @@
       <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="8"/>
       <c r="C30" s="3">
         <v>4</v>
@@ -1287,20 +1295,20 @@
       <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22">
+      <c r="A31" s="26"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16">
         <v>5</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1309,33 +1317,33 @@
       <c r="A33" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="15"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="8" t="s">
         <v>4</v>
       </c>
@@ -1346,48 +1354,48 @@
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="16" t="s">
+      <c r="A38" s="25"/>
+      <c r="B38" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="8"/>
       <c r="C42" s="3">
         <v>1</v>
@@ -1395,12 +1403,12 @@
       <c r="D42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="8"/>
       <c r="C43" s="3">
         <v>2</v>
@@ -1408,12 +1416,12 @@
       <c r="D43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="8"/>
       <c r="C44" s="3">
         <v>3</v>
@@ -1421,12 +1429,12 @@
       <c r="D44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="8"/>
       <c r="C45" s="3">
         <v>4</v>
@@ -1434,20 +1442,20 @@
       <c r="D45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22">
+      <c r="A46" s="26"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16">
         <v>5</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="18" t="s">
         <v>22</v>
       </c>
     </row>
